--- a/configs/flower.xlsx
+++ b/configs/flower.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_work\GitWork\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5258FAA2-E082-45AD-90E2-8A6274E0D9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="2520" windowWidth="21600" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="2520" windowWidth="21600" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
-    <t>flowerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,14 +137,18 @@
   </si>
   <si>
     <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowerSpecies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -330,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -507,21 +501,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
@@ -530,190 +524,190 @@
     <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>

--- a/configs/flower.xlsx
+++ b/configs/flower.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\korrel\work\WebProject\animalcrossing.io\configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED891C2-B610-4AED-A5AF-B2F76BE55C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="2520" windowWidth="21600" windowHeight="13635"/>
+    <workbookView xWindow="32025" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,21 +25,203 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+  <si>
+    <t>white,rryyWwss,种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,rryywwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rryyWWss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rryyWw,50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow,rrYYWWss,种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange,RrYyWWss,50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow,RrYyWWSs,50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rrYyWwss,100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,rryywwss,一号紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,rrYywwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rryyWwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rrYyWwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rrYYwwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,rryywwss,50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange,RrYyWWss,一号橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rrYyWwss,一号白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange,RrYYWwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red,RrYyWwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow,rrYYWwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange,RrYYWwss,二号橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red,RrYYwwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red,RrYYwwss,一号红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue,RRYYwwss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,rrYywwss,二号紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rrYYwwss,二号白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>rose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white,rryyWwss,种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purple,rryywwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white,rryyWWss,25%</t>
+  </si>
+  <si>
+    <t>red,RRyyWWSs,种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowerSpecies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink,RRyyWWSS,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black,RRyyWWss,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red,RRyyWWSs,50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red,RRyyWW,种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow,rrYYWW,种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow,RrYyWW,100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow,RrYyWW,一号黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,RRYyWW,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink,RryyWW,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow,RrYyWW,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red,RRyyWW,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,RRYyWW,一号紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green,RRYYWW,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,RRYyWW,50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mums</t>
+  </si>
+  <si>
+    <t>red,RrYYwwss,50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black,RRyyWWss,一号黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rryyWw,种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple,rryyww,25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white,rryyWW,25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -41,114 +229,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yellow,rrYYWWss,种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orange,RrYyWWss,50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yellow,RrYyWWSs,50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white,rrYyWwss,100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purple,rryywwss,一号紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purple,rrYywwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white,rryyWwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white,rrYyWwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white,rrYYwwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purple,rryywwss,50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orange,RrYyWWss,一号橙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white,rrYyWwss,一号白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orange,RrYYWwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red,RrYyWwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yellow,rrYYWwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orange,RrYYWwss,二号橙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red,RrYYwwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red,RrYYwwss,一号红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue,RRYYwwss,25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purple,rrYywwss,二号紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white,rrYYwwss,二号白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>red,RRyyWWSs,种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>children</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flowerSpecies</t>
+    <t>golden,RRyyWWss,?%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +293,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF90CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -229,12 +348,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF90CC"/>
+      <color rgb="FFC000A5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,21 +631,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
@@ -524,197 +654,306 @@
     <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
